--- a/TEMOA_Europe_Results/3_Results_ct+_nuc+/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/3_Results_ct+_nuc+/_2_Primary energy supply.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
   <si>
     <t>tech</t>
   </si>
@@ -191,9 +191,6 @@
     <t>UPS_TDL_POT</t>
   </si>
   <si>
-    <t>UPS_WAV_POT</t>
-  </si>
-  <si>
     <t>UPS_WIN_ON_POT</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
   </si>
   <si>
     <t>RNW_POT_TDL</t>
-  </si>
-  <si>
-    <t>RNW_POT_WAV</t>
   </si>
   <si>
     <t>RNW_POT_WIN_ON</t>
@@ -804,7 +798,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -853,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>7384.745999999999</v>
@@ -891,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -929,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -967,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1005,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1043,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1081,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>95.66000000000001</v>
@@ -1119,7 +1113,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>95.66000000000001</v>
@@ -1157,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <v>47.83000000000001</v>
@@ -1195,7 +1189,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1204,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003000000016982085</v>
+        <v>0.003000000018801074</v>
       </c>
       <c r="G11">
-        <v>194.505599999983</v>
+        <v>194.5055999999812</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1233,7 +1227,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1271,7 +1265,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1309,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14">
         <v>3335.857</v>
@@ -1347,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>3558.246999999999</v>
@@ -1385,7 +1379,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16">
         <v>2001.514</v>
@@ -1423,7 +1417,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>735.285</v>
@@ -1461,7 +1455,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>980.3810000000001</v>
@@ -1499,7 +1493,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>727.9470000000014</v>
@@ -1537,7 +1531,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>3638.04</v>
@@ -1555,16 +1549,16 @@
         <v>1968.471</v>
       </c>
       <c r="I20">
-        <v>1771.624</v>
+        <v>1427.345925325887</v>
       </c>
       <c r="J20">
         <v>1594.461</v>
       </c>
       <c r="K20">
-        <v>1435.015</v>
+        <v>1403.70819494383</v>
       </c>
       <c r="L20">
-        <v>1291.514</v>
+        <v>557.233153589083</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1575,7 +1569,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>3280.326</v>
@@ -1599,7 +1593,7 @@
         <v>611.027</v>
       </c>
       <c r="K21">
-        <v>125.6691999999988</v>
+        <v>125.6691999999992</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1613,7 +1607,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1637,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>363.1528000000012</v>
+        <v>363.1528000000008</v>
       </c>
       <c r="L22">
-        <v>239.2286941283175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1651,13 +1645,13 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>10579.16162513793</v>
       </c>
       <c r="E23">
-        <v>9711.157223369248</v>
+        <v>9711.157223369246</v>
       </c>
       <c r="F23">
         <v>8293.784107105919</v>
@@ -1666,16 +1660,16 @@
         <v>8907.823314909461</v>
       </c>
       <c r="H23">
-        <v>7756.114173301743</v>
+        <v>7756.114173301747</v>
       </c>
       <c r="I23">
-        <v>6604.405031694026</v>
+        <v>6604.405031694028</v>
       </c>
       <c r="J23">
-        <v>5452.695890086306</v>
+        <v>5452.695890086309</v>
       </c>
       <c r="K23">
-        <v>4300.986748478593</v>
+        <v>4300.986748478592</v>
       </c>
       <c r="L23">
         <v>3149.277606870876</v>
@@ -1689,7 +1683,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <v>467.8900000000004</v>
@@ -1713,10 +1707,10 @@
         <v>501.2679999999999</v>
       </c>
       <c r="K24">
-        <v>298.4923485975271</v>
+        <v>264.5320648282132</v>
       </c>
       <c r="L24">
-        <v>42.89470678988622</v>
+        <v>40.94422915066146</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1727,16 +1721,16 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>172.7</v>
       </c>
       <c r="E25">
-        <v>2.783489610505621</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>66.54962328242486</v>
+        <v>63.94423581829044</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1765,7 +1759,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26">
         <v>346.6</v>
@@ -1774,19 +1768,19 @@
         <v>474.9</v>
       </c>
       <c r="F26">
-        <v>603.1999999999999</v>
+        <v>603.2</v>
       </c>
       <c r="G26">
         <v>742.85</v>
       </c>
       <c r="H26">
-        <v>877.6636292984317</v>
+        <v>882.5</v>
       </c>
       <c r="I26">
-        <v>452.157297539765</v>
+        <v>708.0797424962615</v>
       </c>
       <c r="J26">
-        <v>221.0115789180875</v>
+        <v>221.0115783811765</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1803,25 +1797,25 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>761.5145868292333</v>
+        <v>762.7765775185194</v>
       </c>
       <c r="F27">
-        <v>1294.284376717575</v>
+        <v>1296.889764181711</v>
       </c>
       <c r="G27">
-        <v>985.4595006436223</v>
+        <v>936.4659273081187</v>
       </c>
       <c r="H27">
-        <v>156.5422079760636</v>
+        <v>200.2331805603968</v>
       </c>
       <c r="I27">
-        <v>219.4254855328572</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1830,7 +1824,7 @@
         <v>300.9967210334117</v>
       </c>
       <c r="L27">
-        <v>9.884851802923714E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1841,7 +1835,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1859,13 +1853,13 @@
         <v>317.6</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>310.3</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>294.45</v>
       </c>
       <c r="L28">
         <v>285.9</v>
@@ -1879,7 +1873,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1917,7 +1911,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30">
         <v>1109.8</v>
@@ -1955,7 +1949,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>533.3</v>
@@ -1993,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>110.6</v>
@@ -2031,7 +2025,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>156.2</v>
@@ -2069,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34">
         <v>977.3</v>
@@ -2087,13 +2081,13 @@
         <v>946.9</v>
       </c>
       <c r="I34">
-        <v>945.4000000000001</v>
+        <v>945.4</v>
       </c>
       <c r="J34">
-        <v>943.8999999999999</v>
+        <v>943.9</v>
       </c>
       <c r="K34">
-        <v>923.15</v>
+        <v>923.1500000000001</v>
       </c>
       <c r="L34">
         <v>902.4</v>
@@ -2107,7 +2101,7 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35">
         <v>424.3</v>
@@ -2125,10 +2119,10 @@
         <v>565</v>
       </c>
       <c r="I35">
-        <v>610.1499999999999</v>
+        <v>610.15</v>
       </c>
       <c r="J35">
-        <v>655.2999999999998</v>
+        <v>655.3</v>
       </c>
       <c r="K35">
         <v>707.0999999999999</v>
@@ -2145,7 +2139,7 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36">
         <v>24.1</v>
@@ -2166,13 +2160,13 @@
         <v>38.95</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>48.29999999999999</v>
       </c>
       <c r="L36">
-        <v>53.59999999999999</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2183,7 +2177,7 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37">
         <v>1246</v>
@@ -2221,7 +2215,7 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38">
         <v>26.9</v>
@@ -2259,10 +2253,10 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D39">
-        <v>215.3025151778218</v>
+        <v>215.3025151778263</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2283,7 +2277,7 @@
         <v>641.8335</v>
       </c>
       <c r="K39">
-        <v>728.252525</v>
+        <v>728.2525249999999</v>
       </c>
       <c r="L39">
         <v>814.67155</v>
@@ -2297,34 +2291,34 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40">
-        <v>87.3894848221785</v>
+        <v>87.38948482217847</v>
       </c>
       <c r="E40">
-        <v>76.49492356026126</v>
+        <v>78.01642248148035</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>80.3692716470771</v>
+        <v>80.36880587718491</v>
       </c>
       <c r="H40">
-        <v>152.7393260937845</v>
+        <v>163.9340218642581</v>
       </c>
       <c r="I40">
-        <v>52.45296491270634</v>
+        <v>67.26170784599681</v>
       </c>
       <c r="J40">
-        <v>45.665733759825</v>
+        <v>61.10433056746565</v>
       </c>
       <c r="K40">
-        <v>52.45256161661926</v>
+        <v>65.11785835106635</v>
       </c>
       <c r="L40">
-        <v>54.60747054319005</v>
+        <v>58.32691064709508</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2335,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41">
         <v>283</v>
@@ -2350,19 +2344,19 @@
         <v>400</v>
       </c>
       <c r="H41">
-        <v>509.070358921895</v>
+        <v>517</v>
       </c>
       <c r="I41">
-        <v>566.1716932360982</v>
+        <v>624</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>621.2138979095996</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>822.4999999999999</v>
       </c>
       <c r="L41">
-        <v>3.959585950674579</v>
+        <v>914</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2373,7 +2367,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42">
         <v>2088.78</v>
@@ -2385,22 +2379,22 @@
         <v>2231.010000000001</v>
       </c>
       <c r="G42">
-        <v>2253.997023345573</v>
+        <v>2298.483323975084</v>
       </c>
       <c r="H42">
-        <v>2344.757290200286</v>
+        <v>2324.40096204614</v>
       </c>
       <c r="I42">
-        <v>1996.645728813246</v>
+        <v>1871.701456731047</v>
       </c>
       <c r="J42">
-        <v>1635.249388324059</v>
+        <v>1567.771508052376</v>
       </c>
       <c r="K42">
-        <v>1333.302654463673</v>
+        <v>1288.155046122691</v>
       </c>
       <c r="L42">
-        <v>1261.225709519292</v>
+        <v>1231.142820084971</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2411,16 +2405,16 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43">
-        <v>232.1341141646324</v>
+        <v>226.5083413557851</v>
       </c>
       <c r="E43">
-        <v>271.1442143428379</v>
+        <v>269.3751169360724</v>
       </c>
       <c r="F43">
-        <v>246.3899281368211</v>
+        <v>277.4716512064518</v>
       </c>
       <c r="G43">
         <v>230</v>
@@ -2449,7 +2443,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44">
         <v>164.23</v>
@@ -2461,22 +2455,22 @@
         <v>583.6799999999999</v>
       </c>
       <c r="G44">
-        <v>1406.094709572</v>
+        <v>1426.851704772</v>
       </c>
       <c r="H44">
-        <v>2132.804316071089</v>
+        <v>2250.824295587177</v>
       </c>
       <c r="I44">
-        <v>2470.017475985833</v>
+        <v>2753.120505486886</v>
       </c>
       <c r="J44">
-        <v>2683.010137291487</v>
+        <v>2734.681991384058</v>
       </c>
       <c r="K44">
-        <v>2647.966898118546</v>
+        <v>2732.410489621275</v>
       </c>
       <c r="L44">
-        <v>2670.775941018219</v>
+        <v>2887.999430577406</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2487,34 +2481,34 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45">
-        <v>258.9208858353676</v>
+        <v>264.5466586442148</v>
       </c>
       <c r="E45">
-        <v>590.3377856571624</v>
+        <v>592.1068830639279</v>
       </c>
       <c r="F45">
-        <v>905.9790718631785</v>
+        <v>874.8973487935484</v>
       </c>
       <c r="G45">
-        <v>1151.653829069649</v>
+        <v>1144.773408184282</v>
       </c>
       <c r="H45">
-        <v>1151.491411255363</v>
+        <v>1144.610990369996</v>
       </c>
       <c r="I45">
-        <v>1129.734976925916</v>
+        <v>1143.717981258516</v>
       </c>
       <c r="J45">
-        <v>1148.76049507322</v>
+        <v>1141.880074187853</v>
       </c>
       <c r="K45">
-        <v>1148.76049507322</v>
+        <v>1141.880074187853</v>
       </c>
       <c r="L45">
-        <v>1148.76049507322</v>
+        <v>1141.880074187853</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2525,7 +2519,7 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46">
         <v>2.74</v>
@@ -2537,22 +2531,22 @@
         <v>20.46</v>
       </c>
       <c r="G46">
-        <v>20.1858754848</v>
+        <v>18.88705370817091</v>
       </c>
       <c r="H46">
-        <v>21.57972863316614</v>
+        <v>17.39028576</v>
       </c>
       <c r="I46">
-        <v>20.19921935207316</v>
+        <v>14.04454874934794</v>
       </c>
       <c r="J46">
-        <v>12.40525525863086</v>
+        <v>7.489222411064121</v>
       </c>
       <c r="K46">
-        <v>11.98246574624737</v>
+        <v>7.328450574337184</v>
       </c>
       <c r="L46">
-        <v>0.1483014433105515</v>
+        <v>0.140984841599997</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2563,22 +2557,22 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47">
-        <v>1.647055573333333</v>
+        <v>1.72</v>
       </c>
       <c r="E47">
-        <v>1.697197813333333</v>
+        <v>1.76</v>
       </c>
       <c r="F47">
-        <v>1.765494569861635</v>
+        <v>1.85</v>
       </c>
       <c r="G47">
-        <v>6.950128801811322</v>
+        <v>7.794563904000002</v>
       </c>
       <c r="H47">
-        <v>0.8029065600000009</v>
+        <v>0.7854986880000008</v>
       </c>
       <c r="I47">
         <v>0.6042297600000007</v>
@@ -2601,34 +2595,34 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48">
-        <v>0.0729444266666667</v>
+        <v>550.0799999999999</v>
       </c>
       <c r="E48">
-        <v>0.06280218666666677</v>
+        <v>983.0199999999999</v>
       </c>
       <c r="F48">
-        <v>0.08450543013836487</v>
+        <v>1530.69</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2431.028439804823</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3014.119159139736</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3159.335542228745</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>3215.153895300906</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3298.34727773025</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3558.647818664097</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2639,34 +2633,34 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49">
-        <v>550.0799999999999</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>983.0199999999999</v>
+        <v>126.62</v>
       </c>
       <c r="F49">
-        <v>1530.69</v>
+        <v>259.57</v>
       </c>
       <c r="G49">
-        <v>2485.621673985703</v>
+        <v>961.6839851718081</v>
       </c>
       <c r="H49">
-        <v>2985.657885619107</v>
+        <v>2084.224253728108</v>
       </c>
       <c r="I49">
-        <v>3131.202673515517</v>
+        <v>4186.091546095831</v>
       </c>
       <c r="J49">
-        <v>3161.829503041326</v>
+        <v>5910.878043576144</v>
       </c>
       <c r="K49">
-        <v>3307.94944141248</v>
+        <v>6713.511797117828</v>
       </c>
       <c r="L49">
-        <v>3557.189016817086</v>
+        <v>7582.493154757906</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2677,34 +2671,34 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>281.869</v>
       </c>
       <c r="E50">
-        <v>126.62</v>
+        <v>305.4943238549999</v>
       </c>
       <c r="F50">
-        <v>259.57</v>
+        <v>456.966</v>
       </c>
       <c r="G50">
-        <v>982.22402470968</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="H50">
-        <v>2112.460378861062</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="I50">
-        <v>3126.093034905408</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="J50">
-        <v>4266.586793596279</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="K50">
-        <v>4982.770844815869</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="L50">
-        <v>5820.848340245791</v>
+        <v>994.9430000000001</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2715,34 +2709,34 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D51">
-        <v>281.869</v>
+        <v>45.454</v>
       </c>
       <c r="E51">
-        <v>305.4943238549999</v>
+        <v>49.14117809999999</v>
       </c>
       <c r="F51">
-        <v>456.966</v>
+        <v>31.521</v>
       </c>
       <c r="G51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="H51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="I51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="J51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="K51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="L51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2753,34 +2747,34 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D52">
-        <v>45.454</v>
+        <v>573.5430000000001</v>
       </c>
       <c r="E52">
-        <v>49.14117809999999</v>
+        <v>622.4549225999999</v>
       </c>
       <c r="F52">
-        <v>31.521</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="G52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="H52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="I52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="J52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="K52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="L52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2791,34 +2785,34 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53">
-        <v>573.5430000000001</v>
+        <v>1121.453</v>
       </c>
       <c r="E53">
-        <v>622.4549225999999</v>
+        <v>1216.244157975</v>
       </c>
       <c r="F53">
-        <v>397.7380000000001</v>
+        <v>1166.519</v>
       </c>
       <c r="G53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="H53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="I53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="J53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="K53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="L53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2829,34 +2823,34 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D54">
-        <v>1121.453</v>
+        <v>513.1460000000001</v>
       </c>
       <c r="E54">
-        <v>1216.244157975</v>
+        <v>556.9333518000001</v>
       </c>
       <c r="F54">
-        <v>1166.519</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="G54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="H54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="I54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="J54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="K54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="L54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2867,34 +2861,34 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D55">
-        <v>513.146</v>
+        <v>18141.907</v>
       </c>
       <c r="E55">
-        <v>556.9333518000001</v>
+        <v>17784.42636</v>
       </c>
       <c r="F55">
-        <v>533.7809999999999</v>
+        <v>18571.906</v>
       </c>
       <c r="G55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2905,22 +2899,22 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56">
-        <v>18141.907</v>
+        <v>8810.888999999999</v>
       </c>
       <c r="E56">
-        <v>17784.42636</v>
+        <v>9476.640240928249</v>
       </c>
       <c r="F56">
-        <v>18571.906</v>
+        <v>6480.449</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>8804.123028157546</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2313.206151822737</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2943,34 +2937,34 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D57">
-        <v>8810.888999999999</v>
+        <v>7942.354</v>
       </c>
       <c r="E57">
-        <v>9476.640240928242</v>
+        <v>8599.706167500002</v>
       </c>
       <c r="F57">
-        <v>6480.449</v>
+        <v>6448.197</v>
       </c>
       <c r="G57">
-        <v>8659.679242449953</v>
+        <v>14039.533</v>
       </c>
       <c r="H57">
-        <v>2926.815387642128</v>
+        <v>14039.533</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>10395.50419405986</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>6578.391866905325</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>5397.890105900665</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1584.947122034112</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2981,34 +2975,34 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58">
-        <v>7942.354</v>
+        <v>5.683</v>
       </c>
       <c r="E58">
-        <v>8599.706167500002</v>
+        <v>6.142647262499999</v>
       </c>
       <c r="F58">
-        <v>6448.197</v>
+        <v>3.941</v>
       </c>
       <c r="G58">
-        <v>14039.533</v>
+        <v>8.581000000000001</v>
       </c>
       <c r="H58">
-        <v>14039.533</v>
+        <v>8.581000000000001</v>
       </c>
       <c r="I58">
-        <v>11375.42550070693</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>8439.508734802794</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>6932.858416437403</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>2293.692844353028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3019,22 +3013,22 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D59">
-        <v>5.683</v>
+        <v>7.582</v>
       </c>
       <c r="E59">
-        <v>6.142647262499999</v>
+        <v>8.23114733175</v>
       </c>
       <c r="F59">
-        <v>3.941</v>
+        <v>15.765</v>
       </c>
       <c r="G59">
-        <v>8.581000000000001</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>8.581000000000001</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3057,22 +3051,22 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D60">
-        <v>7.582</v>
+        <v>346.636</v>
       </c>
       <c r="E60">
-        <v>8.23114733175</v>
+        <v>375.5205026475</v>
       </c>
       <c r="F60">
-        <v>15.765</v>
+        <v>240.384</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>523.383</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>523.383</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3095,31 +3089,31 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61">
-        <v>346.636</v>
+        <v>17983.926</v>
       </c>
       <c r="E61">
-        <v>375.5205026475</v>
+        <v>19356.834</v>
       </c>
       <c r="F61">
-        <v>240.384</v>
+        <v>17799.55999999999</v>
       </c>
       <c r="G61">
-        <v>523.383</v>
+        <v>12431.66144063895</v>
       </c>
       <c r="H61">
-        <v>523.383</v>
+        <v>7110.408363733496</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3518.142627964358</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1664.997527305271</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>704.0093684617445</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3133,34 +3127,34 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62">
-        <v>17983.926</v>
+        <v>1649.5118</v>
       </c>
       <c r="E62">
-        <v>19356.834</v>
+        <v>1801.2946</v>
       </c>
       <c r="F62">
-        <v>17799.55999999999</v>
+        <v>1420.868</v>
       </c>
       <c r="G62">
-        <v>12369.75696104998</v>
+        <v>2099.649</v>
       </c>
       <c r="H62">
-        <v>7304.179701360672</v>
+        <v>2778.43</v>
       </c>
       <c r="I62">
-        <v>3733.247305033228</v>
+        <v>2778.429999999999</v>
       </c>
       <c r="J62">
-        <v>1918.786191109471</v>
+        <v>2778.43</v>
       </c>
       <c r="K62">
-        <v>801.9860691343024</v>
+        <v>2778.43</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2283.528</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3171,34 +3165,34 @@
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D63">
-        <v>1649.5118</v>
+        <v>13316.52679999999</v>
       </c>
       <c r="E63">
-        <v>1801.2946</v>
+        <v>14460.19899999999</v>
       </c>
       <c r="F63">
-        <v>1420.868</v>
+        <v>13473.857</v>
       </c>
       <c r="G63">
-        <v>2099.648999999999</v>
+        <v>6791.875795000001</v>
       </c>
       <c r="H63">
-        <v>2778.430000000001</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2778.429999999999</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>2283.528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3209,34 +3203,34 @@
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D64">
-        <v>13316.52679999999</v>
+        <v>25.25</v>
       </c>
       <c r="E64">
-        <v>14460.199</v>
+        <v>27.573</v>
       </c>
       <c r="F64">
-        <v>13473.857</v>
+        <v>278.5463999999999</v>
       </c>
       <c r="G64">
-        <v>6791.875795</v>
+        <v>493.7867999999998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>703.4000000000001</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>625.1929709266576</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>503.4406750891162</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>114.8801414628678</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>36.62799999999999</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3247,34 +3241,34 @@
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D65">
-        <v>25.25</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>27.573</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>278.5463999999999</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>493.7867999999999</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>703.4000000000001</v>
+        <v>386.8699999999997</v>
       </c>
       <c r="I65">
-        <v>703.4</v>
+        <v>370.2806301965638</v>
       </c>
       <c r="J65">
-        <v>703.4</v>
+        <v>49.22465422809304</v>
       </c>
       <c r="K65">
-        <v>703.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>36.628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3285,31 +3279,31 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>8181.324</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>8584.531999999997</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>7355.054999999999</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>5072.782245252028</v>
       </c>
       <c r="H66">
-        <v>386.8699999999999</v>
+        <v>2469.642631578947</v>
       </c>
       <c r="I66">
-        <v>466.0025</v>
+        <v>1695.893839270951</v>
       </c>
       <c r="J66">
-        <v>483.9551468702322</v>
+        <v>993.1268630887106</v>
       </c>
       <c r="K66">
-        <v>483.9551468702322</v>
+        <v>436.924157965715</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3323,34 +3317,34 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67">
-        <v>8181.324000000001</v>
+        <v>1573.6248</v>
       </c>
       <c r="E67">
-        <v>8584.531999999999</v>
+        <v>538.9857</v>
       </c>
       <c r="F67">
-        <v>7355.054999999999</v>
+        <v>1000.5732</v>
       </c>
       <c r="G67">
-        <v>5124.70860504479</v>
+        <v>2021.36</v>
       </c>
       <c r="H67">
-        <v>2469.642631578947</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1734.073353658536</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1109.553662079915</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>519.4113201067042</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>900.6801662111261</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3361,34 +3355,34 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D68">
-        <v>1573.624800000001</v>
+        <v>1380.8817</v>
       </c>
       <c r="E68">
-        <v>538.9857</v>
+        <v>911.5425</v>
       </c>
       <c r="F68">
-        <v>1000.5732</v>
+        <v>978.6645</v>
       </c>
       <c r="G68">
-        <v>2021.36</v>
+        <v>429.8203105880567</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1357.425</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1357.425</v>
       </c>
       <c r="J68">
-        <v>219.1067083824787</v>
+        <v>1357.425</v>
       </c>
       <c r="K68">
-        <v>219.8238681348009</v>
+        <v>1357.425</v>
       </c>
       <c r="L68">
-        <v>2021.36</v>
+        <v>1357.425</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3399,34 +3393,34 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D69">
-        <v>1380.8817</v>
+        <v>291.1194</v>
       </c>
       <c r="E69">
-        <v>911.5424999999999</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>978.6644999999999</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>550.9818167711774</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3437,16 +3431,16 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D70">
-        <v>291.1194</v>
+        <v>207.4545</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>98.88120000000001</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>180.1701</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3475,34 +3469,34 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D71">
-        <v>207.4545</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>98.88120000000001</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>180.1701</v>
+        <v>827.5509</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="L71">
-        <v>363.98</v>
+        <v>2594.41</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3513,7 +3507,7 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3522,25 +3516,25 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>827.5509000000001</v>
+        <v>562.4289</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>2594.409999999999</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3551,34 +3545,34 @@
         <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>616.5158729999999</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>609.5027680000001</v>
       </c>
       <c r="F73">
-        <v>562.4289</v>
+        <v>88.207576</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3589,34 +3583,34 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D74">
-        <v>616.5158730000002</v>
+        <v>586.5879180000001</v>
       </c>
       <c r="E74">
-        <v>609.5027680000001</v>
+        <v>827.1823280000001</v>
       </c>
       <c r="F74">
-        <v>88.207576</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="G74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
       <c r="H74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
       <c r="I74">
-        <v>132.311364</v>
+        <v>803.8115113893406</v>
       </c>
       <c r="J74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
       <c r="K74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
       <c r="L74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3627,34 +3621,34 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D75">
-        <v>586.5879179999999</v>
+        <v>23.942364</v>
       </c>
       <c r="E75">
-        <v>827.1823280000001</v>
+        <v>37.31649600000001</v>
       </c>
       <c r="F75">
-        <v>579.1019119999999</v>
+        <v>76.70224</v>
       </c>
       <c r="G75">
-        <v>868.6528680000001</v>
+        <v>115.05336</v>
       </c>
       <c r="H75">
-        <v>868.6528680000001</v>
+        <v>115.05336</v>
       </c>
       <c r="I75">
-        <v>868.6528680000001</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>868.6528680000001</v>
+        <v>115.05336</v>
       </c>
       <c r="K75">
-        <v>868.6528680000001</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>868.6528680000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3665,34 +3659,34 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D76">
-        <v>23.942364</v>
+        <v>161.610957</v>
       </c>
       <c r="E76">
-        <v>37.31649600000001</v>
+        <v>118.168904</v>
       </c>
       <c r="F76">
-        <v>76.70224</v>
+        <v>99.712912</v>
       </c>
       <c r="G76">
-        <v>115.05336</v>
+        <v>149.569368</v>
       </c>
       <c r="H76">
-        <v>115.05336</v>
+        <v>149.569368</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>149.569368</v>
       </c>
       <c r="J76">
-        <v>39.54181489535011</v>
+        <v>149.569368</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>149.569368</v>
       </c>
       <c r="L76">
-        <v>115.05336</v>
+        <v>149.569368</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3703,34 +3697,34 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D77">
-        <v>161.610957</v>
+        <v>389.063415</v>
       </c>
       <c r="E77">
-        <v>118.168904</v>
+        <v>310.9708000000001</v>
       </c>
       <c r="F77">
-        <v>99.712912</v>
+        <v>3.835112</v>
       </c>
       <c r="G77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="H77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="I77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="J77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="K77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="L77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3741,34 +3735,34 @@
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D78">
-        <v>389.063415</v>
+        <v>161.610957</v>
       </c>
       <c r="E78">
-        <v>310.9708000000001</v>
+        <v>18.658248</v>
       </c>
       <c r="F78">
-        <v>3.835112</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3779,34 +3773,34 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D79">
-        <v>161.610957</v>
+        <v>1316.83002</v>
       </c>
       <c r="E79">
-        <v>18.658248</v>
+        <v>1430.46568</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>230.10672</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3817,34 +3811,34 @@
         <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D80">
-        <v>1316.83002</v>
+        <v>1556.25366</v>
       </c>
       <c r="E80">
-        <v>1430.46568</v>
+        <v>1952.896624</v>
       </c>
       <c r="F80">
-        <v>230.10672</v>
+        <v>2105.476488</v>
       </c>
       <c r="G80">
-        <v>345.16008</v>
+        <v>1052.738244</v>
       </c>
       <c r="H80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3855,34 +3849,34 @@
         <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D81">
-        <v>1556.25366</v>
+        <v>1173.175836</v>
       </c>
       <c r="E81">
-        <v>1952.896624</v>
+        <v>914.254152</v>
       </c>
       <c r="F81">
-        <v>2105.476488</v>
+        <v>651.9690400000001</v>
       </c>
       <c r="G81">
-        <v>1052.738244</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3893,71 +3887,33 @@
         <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D82">
-        <v>1173.175836</v>
+        <v>931.7899999999998</v>
       </c>
       <c r="E82">
-        <v>914.254152</v>
+        <v>763.401</v>
       </c>
       <c r="F82">
-        <v>651.9690400000001</v>
+        <v>571.756</v>
       </c>
       <c r="G82">
-        <v>977.9535600000003</v>
+        <v>405.2435013333334</v>
       </c>
       <c r="H82">
-        <v>977.9535600000003</v>
+        <v>225.604632</v>
       </c>
       <c r="I82">
-        <v>977.9535600000003</v>
+        <v>154.1207585993196</v>
       </c>
       <c r="J82">
-        <v>977.9535600000003</v>
+        <v>108.1022195</v>
       </c>
       <c r="K82">
-        <v>977.9535600000003</v>
+        <v>50.59999812244899</v>
       </c>
       <c r="L82">
-        <v>977.9535600000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83">
-        <v>931.7900000000002</v>
-      </c>
-      <c r="E83">
-        <v>763.401</v>
-      </c>
-      <c r="F83">
-        <v>571.756</v>
-      </c>
-      <c r="G83">
-        <v>405.2435013333334</v>
-      </c>
-      <c r="H83">
-        <v>225.604632</v>
-      </c>
-      <c r="I83">
-        <v>158.2595685957447</v>
-      </c>
-      <c r="J83">
-        <v>104.9559051206363</v>
-      </c>
-      <c r="K83">
-        <v>50.59999812244899</v>
-      </c>
-      <c r="L83">
         <v>0</v>
       </c>
     </row>
